--- a/crawler/contentxls/content sl.xlsx
+++ b/crawler/contentxls/content sl.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1421">
   <si>
     <t>title</t>
   </si>
@@ -2237,93 +2237,6 @@
   </si>
   <si>
     <t xml:space="preserve">啥意思							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在维权的道路上我们全国的受害人不能迷失方向，我们必须要坚持“善林金融承担全额退款加利息，按合同办事的责任，上海市政府承担因监管不力、失职、渎职或行政不作为，应当承担全额返还的连带或补充则任！”我们要坚定不移的坚持这个立场不变。坚决反对将此案定性为“非吸”，我们不是投资人！不能让无辜灾民为他们买单！							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要让更多的人参与进来，知道我们的维权立场，有在其它群里的家人们复制粘贴给其它群，这是我们共同的呼声，不达到目的我们维权不止！							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我要是早看到网上关于SL的负面官方消息，早就醒悟不会投了。							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">现在出事了才懂得这里搜那里搜的。							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">也是哦							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出事才慢慢有							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">如果业务是你朋友亲戚，估计防范意识更弱了							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原因怎么骗就怎么骗反正一分钱没有就玩了							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以后的钱谁也不会给埋在地下水也不给							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">现在都醒悟过来啦，有骗子也偏不了你啦，继续努力赚钱去							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丧钟已经敲响							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">死亡的步伐							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回得来！							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不要害怕。							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">时间的问题。							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">智商税白交了							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哭吧哭吧不是罪							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我也坚决反对定性为非吸！但是我们说了不算！							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">老百姓说话是最没卵用的，哎							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">既然回来了							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">钱到手也的5年							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">案子3年结束							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第四年让你去签到							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">五年给你钱							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本不都是这样吗							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三年基本够了							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">够了吗							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这种案子							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">但是也不一定							</t>
   </si>
   <si>
     <t xml:space="preserve">他们返钱的比例我问了说签单子							</t>
@@ -2845,33 +2758,6 @@
   <si>
     <t>去批发市场买了十斤番茄</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">那会你看不到都被他花钱删了							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">当时的防范意识几乎为零也没有想那么多							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你们是谁推荐的投资我是亲戚业务员							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不都是出事了才想着去翻这些资料才发现当时上当的时候脑袋真是生锈了							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是弱了根本被亲戚拉下水了[表情]							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">钱要有是花光别便宜了骗子							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">眼泪哭干我们的钱也永远回不来了[表情]							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辛辛苦苦大半年一下回到解放前[表情]							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">公安办的这种男子越来越多理论上办案速度会越来越快不可能越来越慢							</t>
   </si>
   <si>
     <t xml:space="preserve">犯罪成本太低了导致太多罪犯铤而走险，骗个几千万上亿也才判几年							</t>
@@ -4757,7 +4643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4799,16 +4685,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>46</v>
@@ -4816,16 +4702,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -4833,16 +4719,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>939</v>
+        <v>910</v>
       </c>
       <c r="B4" t="s">
-        <v>939</v>
+        <v>910</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>46</v>
@@ -4850,16 +4736,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <v>46</v>
@@ -4867,16 +4753,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G6">
         <v>46</v>
@@ -4884,16 +4770,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>940</v>
+        <v>741</v>
       </c>
       <c r="B7" t="s">
-        <v>940</v>
+        <v>741</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7">
         <v>46</v>
@@ -4901,16 +4787,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>941</v>
+        <v>742</v>
       </c>
       <c r="B8" t="s">
-        <v>941</v>
+        <v>742</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>46</v>
@@ -4918,16 +4804,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>743</v>
+        <v>911</v>
       </c>
       <c r="B9" t="s">
-        <v>743</v>
+        <v>911</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>46</v>
@@ -4935,16 +4821,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>942</v>
+        <v>743</v>
       </c>
       <c r="B10" t="s">
-        <v>942</v>
+        <v>743</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="G10">
         <v>46</v>
@@ -4952,16 +4838,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>943</v>
+        <v>744</v>
       </c>
       <c r="B11" t="s">
-        <v>943</v>
+        <v>744</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>46</v>
@@ -4969,16 +4855,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B12" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>46</v>
@@ -4986,16 +4872,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B13" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>46</v>
@@ -5003,16 +4889,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>944</v>
+        <v>747</v>
       </c>
       <c r="B14" t="s">
-        <v>944</v>
+        <v>747</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>46</v>
@@ -5020,16 +4906,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B15" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="G15">
         <v>46</v>
@@ -5037,16 +4923,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B16" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>46</v>
@@ -5054,16 +4940,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B17" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G17">
         <v>46</v>
@@ -5071,16 +4957,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>945</v>
+        <v>912</v>
       </c>
       <c r="B18" t="s">
-        <v>945</v>
+        <v>912</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>46</v>
@@ -5088,16 +4974,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B19" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G19">
         <v>46</v>
@@ -5105,16 +4991,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B20" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G20">
         <v>46</v>
@@ -5122,16 +5008,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B21" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>46</v>
@@ -5139,16 +5025,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B22" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G22">
         <v>46</v>
@@ -5156,16 +5042,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>946</v>
+        <v>755</v>
       </c>
       <c r="B23" t="s">
-        <v>946</v>
+        <v>755</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G23">
         <v>46</v>
@@ -5173,16 +5059,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B24" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>46</v>
@@ -5190,16 +5076,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="B25" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="G25">
         <v>46</v>
@@ -5207,16 +5093,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="B26" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <v>46</v>
@@ -5224,16 +5110,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="B27" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="G27">
         <v>46</v>
@@ -5241,16 +5127,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B28" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G28">
         <v>46</v>
@@ -5258,16 +5144,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B29" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="G29">
         <v>46</v>
@@ -5275,16 +5161,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B30" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="G30">
         <v>46</v>
@@ -5292,16 +5178,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B31" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G31">
         <v>46</v>
@@ -5309,16 +5195,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>759</v>
+        <v>913</v>
       </c>
       <c r="B32" t="s">
-        <v>759</v>
+        <v>913</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="G32">
         <v>46</v>
@@ -5326,16 +5212,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B33" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G33">
         <v>46</v>
@@ -5343,16 +5229,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B34" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>46</v>
@@ -5360,16 +5246,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B35" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G35">
         <v>46</v>
@@ -5377,16 +5263,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B36" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G36">
         <v>46</v>
@@ -5394,16 +5280,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
       <c r="B37" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>400</v>
+        <v>56</v>
       </c>
       <c r="G37">
         <v>46</v>
@@ -5411,16 +5297,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B38" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>400</v>
+        <v>13</v>
       </c>
       <c r="G38">
         <v>46</v>
@@ -5428,16 +5314,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B39" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="G39">
         <v>46</v>
@@ -5445,16 +5331,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B40" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G40">
         <v>46</v>
@@ -5462,16 +5348,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B41" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>46</v>
@@ -5479,16 +5365,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>948</v>
+        <v>773</v>
       </c>
       <c r="B42" t="s">
-        <v>948</v>
+        <v>773</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G42">
         <v>46</v>
@@ -5496,16 +5382,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="B43" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G43">
         <v>46</v>
@@ -5513,16 +5399,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>769</v>
+        <v>909</v>
       </c>
       <c r="B44" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G44">
         <v>46</v>
@@ -5530,16 +5416,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B45" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>46</v>
@@ -5547,16 +5433,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B46" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G46">
         <v>46</v>
@@ -5564,16 +5450,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>949</v>
+        <v>777</v>
       </c>
       <c r="B47" t="s">
-        <v>949</v>
+        <v>777</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G47">
         <v>46</v>
@@ -5581,16 +5467,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="B48" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="G48">
         <v>46</v>
@@ -5598,16 +5484,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B49" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G49">
         <v>46</v>
@@ -5615,16 +5501,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="B50" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G50">
         <v>46</v>
@@ -5632,16 +5518,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B51" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="G51">
         <v>46</v>
@@ -5649,16 +5535,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B52" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="G52">
         <v>46</v>
@@ -5666,16 +5552,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="B53" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>46</v>
@@ -5683,16 +5569,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="B54" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G54">
         <v>46</v>
@@ -5700,16 +5586,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B55" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="G55">
         <v>46</v>
@@ -5717,16 +5603,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>950</v>
+        <v>786</v>
       </c>
       <c r="B56" t="s">
-        <v>950</v>
+        <v>786</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="G56">
         <v>46</v>
@@ -5734,16 +5620,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="B57" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="G57">
         <v>46</v>
@@ -5751,16 +5637,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="B58" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G58">
         <v>46</v>
@@ -5768,16 +5654,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="B59" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G59">
         <v>46</v>
@@ -5785,16 +5671,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="B60" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G60">
         <v>46</v>
@@ -5802,16 +5688,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="B61" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G61">
         <v>46</v>
@@ -5819,16 +5705,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="B62" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="G62">
         <v>46</v>
@@ -5836,16 +5722,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B63" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -5853,16 +5739,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="B64" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G64">
         <v>46</v>
@@ -5870,13 +5756,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>788</v>
+        <v>915</v>
       </c>
       <c r="B65" t="s">
-        <v>788</v>
+        <v>915</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>199</v>
@@ -5887,16 +5773,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B66" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="G66">
         <v>46</v>
@@ -5904,16 +5790,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>790</v>
+        <v>916</v>
       </c>
       <c r="B67" t="s">
-        <v>790</v>
+        <v>916</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="G67">
         <v>46</v>
@@ -5921,16 +5807,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>791</v>
+        <v>917</v>
       </c>
       <c r="B68" t="s">
-        <v>791</v>
+        <v>917</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="G68">
         <v>46</v>
@@ -5938,16 +5824,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B69" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G69">
         <v>46</v>
@@ -5955,16 +5841,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>951</v>
+        <v>736</v>
       </c>
       <c r="B70" t="s">
-        <v>951</v>
+        <v>736</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="G70">
         <v>46</v>
@@ -5972,16 +5858,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B71" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>46</v>
@@ -5989,16 +5875,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B72" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="G72">
         <v>46</v>
@@ -6006,16 +5892,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B73" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G73">
         <v>46</v>
@@ -6023,16 +5909,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B74" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G74">
         <v>46</v>
@@ -6040,16 +5926,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>952</v>
+        <v>801</v>
       </c>
       <c r="B75" t="s">
-        <v>952</v>
+        <v>801</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="G75">
         <v>46</v>
@@ -6057,16 +5943,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B76" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="G76">
         <v>46</v>
@@ -6074,16 +5960,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B77" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G77">
         <v>46</v>
@@ -6091,16 +5977,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B78" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="G78">
         <v>46</v>
@@ -6108,16 +5994,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="B79" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G79">
         <v>46</v>
@@ -6125,16 +6011,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B80" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="G80">
         <v>46</v>
@@ -6142,13 +6028,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B81" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>28</v>
@@ -6159,16 +6045,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>938</v>
+        <v>808</v>
       </c>
       <c r="B82" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="D82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="G82">
         <v>46</v>
@@ -6176,16 +6062,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B83" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="G83">
         <v>46</v>
@@ -6193,16 +6079,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B84" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="G84">
         <v>46</v>
@@ -6210,16 +6096,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>806</v>
+        <v>918</v>
       </c>
       <c r="B85" t="s">
-        <v>806</v>
+        <v>918</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="G85">
         <v>46</v>
@@ -6227,16 +6113,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B86" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="G86">
         <v>46</v>
@@ -6244,16 +6130,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B87" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G87">
         <v>46</v>
@@ -6261,16 +6147,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B88" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G88">
         <v>46</v>
@@ -6278,16 +6164,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>810</v>
+        <v>919</v>
       </c>
       <c r="B89" t="s">
-        <v>810</v>
+        <v>919</v>
       </c>
       <c r="D89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>46</v>
@@ -6295,16 +6181,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B90" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G90">
         <v>46</v>
@@ -6312,16 +6198,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B91" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="G91">
         <v>46</v>
@@ -6329,16 +6215,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B92" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="G92">
         <v>46</v>
@@ -6346,16 +6232,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>814</v>
+        <v>920</v>
       </c>
       <c r="B93" t="s">
-        <v>814</v>
+        <v>920</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>46</v>
@@ -6363,16 +6249,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B94" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="G94">
         <v>46</v>
@@ -6380,16 +6266,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B95" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G95">
         <v>46</v>
@@ -6397,16 +6283,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B96" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G96">
         <v>46</v>
@@ -6414,16 +6300,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B97" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="G97">
         <v>46</v>
@@ -6431,16 +6317,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B98" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G98">
         <v>46</v>
@@ -6448,16 +6334,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B99" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G99">
         <v>46</v>
@@ -6465,16 +6351,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B100" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G100">
         <v>46</v>
@@ -6482,16 +6368,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B101" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="G101">
         <v>46</v>
@@ -6499,16 +6385,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B102" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G102">
         <v>46</v>
@@ -6516,16 +6402,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>953</v>
+        <v>826</v>
       </c>
       <c r="B103" t="s">
-        <v>953</v>
+        <v>826</v>
       </c>
       <c r="D103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="G103">
         <v>46</v>
@@ -6533,16 +6419,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B104" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="G104">
         <v>46</v>
@@ -6550,16 +6436,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>954</v>
+        <v>828</v>
       </c>
       <c r="B105" t="s">
-        <v>954</v>
+        <v>828</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>46</v>
@@ -6567,16 +6453,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>955</v>
+        <v>921</v>
       </c>
       <c r="B106" t="s">
-        <v>955</v>
+        <v>921</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>46</v>
@@ -6584,16 +6470,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B107" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>46</v>
@@ -6601,16 +6487,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
       <c r="B108" t="s">
-        <v>736</v>
+        <v>830</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>46</v>
@@ -6618,16 +6504,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B109" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>46</v>
@@ -6635,16 +6521,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="B110" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>46</v>
@@ -6652,16 +6538,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="B111" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>46</v>
@@ -6669,16 +6555,16 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="B112" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G112">
         <v>46</v>
@@ -6686,16 +6572,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B113" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>46</v>
@@ -6703,16 +6589,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="B114" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>46</v>
@@ -6720,16 +6606,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="B115" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>46</v>
@@ -6737,16 +6623,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B116" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>46</v>
@@ -6754,16 +6640,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="B117" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="D117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>46</v>
@@ -6771,16 +6657,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>835</v>
+        <v>922</v>
       </c>
       <c r="B118" t="s">
-        <v>835</v>
+        <v>922</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>46</v>
@@ -6788,16 +6674,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>836</v>
+        <v>923</v>
       </c>
       <c r="B119" t="s">
-        <v>836</v>
+        <v>923</v>
       </c>
       <c r="D119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>46</v>
@@ -6805,16 +6691,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B120" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>46</v>
@@ -6822,16 +6708,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>838</v>
+        <v>924</v>
       </c>
       <c r="B121" t="s">
-        <v>838</v>
+        <v>924</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>46</v>
@@ -6839,16 +6725,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>839</v>
+        <v>925</v>
       </c>
       <c r="B122" t="s">
-        <v>839</v>
+        <v>925</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>46</v>
@@ -6856,16 +6742,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>956</v>
+        <v>926</v>
       </c>
       <c r="B123" t="s">
-        <v>956</v>
+        <v>926</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>46</v>
@@ -6873,16 +6759,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B124" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="G124">
         <v>46</v>
@@ -6890,16 +6776,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B125" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="G125">
         <v>46</v>
@@ -6907,16 +6793,16 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B126" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G126">
         <v>46</v>
@@ -6924,16 +6810,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>957</v>
+        <v>844</v>
       </c>
       <c r="B127" t="s">
-        <v>957</v>
+        <v>844</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="G127">
         <v>46</v>
@@ -6941,16 +6827,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B128" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="G128">
         <v>46</v>
@@ -6958,16 +6844,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>844</v>
+        <v>908</v>
       </c>
       <c r="B129" t="s">
-        <v>844</v>
+        <v>908</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G129">
         <v>46</v>
@@ -6975,16 +6861,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>845</v>
+        <v>927</v>
       </c>
       <c r="B130" t="s">
-        <v>845</v>
+        <v>927</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G130">
         <v>46</v>
@@ -6992,16 +6878,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>958</v>
+        <v>846</v>
       </c>
       <c r="B131" t="s">
-        <v>958</v>
+        <v>846</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G131">
         <v>46</v>
@@ -7009,16 +6895,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B132" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G132">
         <v>46</v>
@@ -7026,16 +6912,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B133" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G133">
         <v>46</v>
@@ -7043,16 +6929,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B134" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G134">
         <v>46</v>
@@ -7060,16 +6946,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>849</v>
+        <v>928</v>
       </c>
       <c r="B135" t="s">
-        <v>849</v>
+        <v>928</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="G135">
         <v>46</v>
@@ -7086,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G136">
         <v>46</v>
@@ -7094,16 +6980,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>851</v>
+        <v>929</v>
       </c>
       <c r="B137" t="s">
-        <v>851</v>
+        <v>929</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="G137">
         <v>46</v>
@@ -7111,16 +6997,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B138" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D138" s="1">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G138">
         <v>46</v>
@@ -7128,16 +7014,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B139" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D139" s="1">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G139">
         <v>46</v>
@@ -7145,10 +7031,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B140" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D140" s="1">
         <v>0</v>
@@ -7162,16 +7048,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B141" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="G141">
         <v>46</v>
@@ -7179,16 +7065,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>856</v>
+        <v>930</v>
       </c>
       <c r="B142" t="s">
-        <v>856</v>
+        <v>930</v>
       </c>
       <c r="D142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G142">
         <v>46</v>
@@ -7196,16 +7082,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B143" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G143">
         <v>46</v>
@@ -7213,16 +7099,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>959</v>
+        <v>856</v>
       </c>
       <c r="B144" t="s">
-        <v>959</v>
+        <v>856</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G144">
         <v>46</v>
@@ -7230,16 +7116,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B145" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D145" s="1">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>46</v>
@@ -7247,16 +7133,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B146" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D146" s="1">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="G146">
         <v>46</v>
@@ -7264,16 +7150,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B147" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D147" s="1">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G147">
         <v>46</v>
@@ -7281,16 +7167,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B148" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D148" s="1">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G148">
         <v>46</v>
@@ -7298,16 +7184,16 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B149" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D149" s="1">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="G149">
         <v>46</v>
@@ -7315,16 +7201,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B150" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D150" s="1">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G150">
         <v>46</v>
@@ -7332,16 +7218,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>864</v>
+        <v>931</v>
       </c>
       <c r="B151" t="s">
-        <v>864</v>
+        <v>931</v>
       </c>
       <c r="D151" s="1">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G151">
         <v>46</v>
@@ -7349,16 +7235,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B152" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D152" s="1">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G152">
         <v>46</v>
@@ -7366,16 +7252,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>866</v>
+        <v>932</v>
       </c>
       <c r="B153" t="s">
-        <v>866</v>
+        <v>932</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="G153">
         <v>46</v>
@@ -7383,16 +7269,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B154" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="G154">
         <v>46</v>
@@ -7400,16 +7286,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>868</v>
+        <v>933</v>
       </c>
       <c r="B155" t="s">
-        <v>868</v>
+        <v>933</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="G155">
         <v>46</v>
@@ -7417,16 +7303,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>960</v>
+        <v>865</v>
       </c>
       <c r="B156" t="s">
-        <v>960</v>
+        <v>865</v>
       </c>
       <c r="D156" s="1">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="G156">
         <v>46</v>
@@ -7434,16 +7320,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>961</v>
+        <v>866</v>
       </c>
       <c r="B157" t="s">
-        <v>961</v>
+        <v>866</v>
       </c>
       <c r="D157" s="1">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G157">
         <v>46</v>
@@ -7451,16 +7337,16 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>869</v>
+        <v>934</v>
       </c>
       <c r="B158" t="s">
-        <v>869</v>
+        <v>934</v>
       </c>
       <c r="D158" s="1">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="G158">
         <v>46</v>
@@ -7468,10 +7354,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>962</v>
+        <v>935</v>
       </c>
       <c r="B159" t="s">
-        <v>962</v>
+        <v>935</v>
       </c>
       <c r="D159" s="1">
         <v>0</v>
@@ -7485,16 +7371,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>963</v>
+        <v>867</v>
       </c>
       <c r="B160" t="s">
-        <v>963</v>
+        <v>867</v>
       </c>
       <c r="D160" s="1">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="G160">
         <v>46</v>
@@ -7502,16 +7388,16 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>964</v>
+        <v>868</v>
       </c>
       <c r="B161" t="s">
-        <v>964</v>
+        <v>868</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="G161">
         <v>46</v>
@@ -7519,16 +7405,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>870</v>
+        <v>936</v>
       </c>
       <c r="B162" t="s">
-        <v>870</v>
+        <v>936</v>
       </c>
       <c r="D162" s="1">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="G162">
         <v>46</v>
@@ -7536,16 +7422,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B163" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D163" s="1">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="G163">
         <v>46</v>
@@ -7553,16 +7439,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B164" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D164" s="1">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="G164">
         <v>46</v>
@@ -7570,16 +7456,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B165" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D165" s="1">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="G165">
         <v>46</v>
@@ -7587,16 +7473,16 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B166" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="G166">
         <v>46</v>
@@ -7604,16 +7490,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>937</v>
+        <v>873</v>
       </c>
       <c r="B167" t="s">
-        <v>937</v>
+        <v>873</v>
       </c>
       <c r="D167" s="1">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="G167">
         <v>46</v>
@@ -7621,16 +7507,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>965</v>
+        <v>874</v>
       </c>
       <c r="B168" t="s">
-        <v>965</v>
+        <v>874</v>
       </c>
       <c r="D168" s="1">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G168">
         <v>46</v>
@@ -7647,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G169">
         <v>46</v>
@@ -7664,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G170">
         <v>46</v>
@@ -7681,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G171">
         <v>46</v>
@@ -7695,10 +7581,10 @@
         <v>878</v>
       </c>
       <c r="D172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G172">
         <v>46</v>
@@ -7706,16 +7592,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>966</v>
+        <v>879</v>
       </c>
       <c r="B173" t="s">
-        <v>966</v>
+        <v>879</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="G173">
         <v>46</v>
@@ -7723,16 +7609,16 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B174" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D174" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>400</v>
+        <v>182</v>
       </c>
       <c r="G174">
         <v>46</v>
@@ -7740,16 +7626,16 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>967</v>
+        <v>881</v>
       </c>
       <c r="B175" t="s">
-        <v>967</v>
+        <v>881</v>
       </c>
       <c r="D175" s="1">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="G175">
         <v>46</v>
@@ -7757,16 +7643,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B176" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D176" s="1">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G176">
         <v>46</v>
@@ -7774,16 +7660,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B177" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D177" s="1">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="G177">
         <v>46</v>
@@ -7791,16 +7677,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B178" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D178" s="1">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="G178">
         <v>46</v>
@@ -7808,10 +7694,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B179" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D179" s="1">
         <v>0</v>
@@ -7825,16 +7711,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>968</v>
+        <v>886</v>
       </c>
       <c r="B180" t="s">
-        <v>968</v>
+        <v>886</v>
       </c>
       <c r="D180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="G180">
         <v>46</v>
@@ -7842,16 +7728,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B181" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G181">
         <v>46</v>
@@ -7859,16 +7745,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B182" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D182" s="1">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="G182">
         <v>46</v>
@@ -7876,16 +7762,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B183" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D183" s="1">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="G183">
         <v>46</v>
@@ -7893,16 +7779,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B184" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="G184">
         <v>46</v>
@@ -7910,16 +7796,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B185" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D185" s="1">
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G185">
         <v>46</v>
@@ -7927,16 +7813,16 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B186" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G186">
         <v>46</v>
@@ -7944,16 +7830,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B187" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="D187" s="1">
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="G187">
         <v>46</v>
@@ -7961,16 +7847,16 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B188" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="G188">
         <v>46</v>
@@ -7978,16 +7864,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>969</v>
+        <v>895</v>
       </c>
       <c r="B189" t="s">
-        <v>969</v>
+        <v>895</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G189">
         <v>46</v>
@@ -7995,16 +7881,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B190" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D190" s="1">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="G190">
         <v>46</v>
@@ -8012,16 +7898,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>970</v>
+        <v>897</v>
       </c>
       <c r="B191" t="s">
-        <v>970</v>
+        <v>897</v>
       </c>
       <c r="D191" s="1">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G191">
         <v>46</v>
@@ -8029,16 +7915,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="B192" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="D192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="G192">
         <v>46</v>
@@ -8046,16 +7932,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>971</v>
+        <v>899</v>
       </c>
       <c r="B193" t="s">
-        <v>971</v>
+        <v>899</v>
       </c>
       <c r="D193" s="1">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G193">
         <v>46</v>
@@ -8063,16 +7949,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="B194" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="D194" s="1">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="G194">
         <v>46</v>
@@ -8080,16 +7966,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="B195" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="D195" s="1">
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G195">
         <v>46</v>
@@ -8097,16 +7983,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>972</v>
+        <v>902</v>
       </c>
       <c r="B196" t="s">
-        <v>972</v>
+        <v>902</v>
       </c>
       <c r="D196" s="1">
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="G196">
         <v>46</v>
@@ -8114,16 +8000,16 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>973</v>
+        <v>903</v>
       </c>
       <c r="B197" t="s">
-        <v>973</v>
+        <v>903</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="G197">
         <v>46</v>
@@ -8131,16 +8017,16 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="B198" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="D198" s="1">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="G198">
         <v>46</v>
@@ -8148,16 +8034,16 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="B199" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="D199" s="1">
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="G199">
         <v>46</v>
@@ -8165,16 +8051,16 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>974</v>
+        <v>906</v>
       </c>
       <c r="B200" t="s">
-        <v>974</v>
+        <v>906</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G200">
         <v>46</v>
@@ -8182,664 +8068,18 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="B201" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="D201" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="G201">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A202" t="s">
-        <v>899</v>
-      </c>
-      <c r="B202" t="s">
-        <v>899</v>
-      </c>
-      <c r="D202" s="1">
-        <v>0</v>
-      </c>
-      <c r="E202" t="s">
-        <v>64</v>
-      </c>
-      <c r="G202">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A203" t="s">
-        <v>900</v>
-      </c>
-      <c r="B203" t="s">
-        <v>900</v>
-      </c>
-      <c r="D203" s="1">
-        <v>0</v>
-      </c>
-      <c r="E203" t="s">
-        <v>133</v>
-      </c>
-      <c r="G203">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A204" t="s">
-        <v>901</v>
-      </c>
-      <c r="B204" t="s">
-        <v>901</v>
-      </c>
-      <c r="D204" s="1">
-        <v>0</v>
-      </c>
-      <c r="E204" t="s">
-        <v>101</v>
-      </c>
-      <c r="G204">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A205" t="s">
-        <v>902</v>
-      </c>
-      <c r="B205" t="s">
-        <v>902</v>
-      </c>
-      <c r="D205" s="1">
-        <v>0</v>
-      </c>
-      <c r="E205" t="s">
-        <v>115</v>
-      </c>
-      <c r="G205">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A206" t="s">
-        <v>903</v>
-      </c>
-      <c r="B206" t="s">
-        <v>903</v>
-      </c>
-      <c r="D206" s="1">
-        <v>0</v>
-      </c>
-      <c r="E206" t="s">
-        <v>109</v>
-      </c>
-      <c r="G206">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A207" t="s">
-        <v>904</v>
-      </c>
-      <c r="B207" t="s">
-        <v>904</v>
-      </c>
-      <c r="D207" s="1">
-        <v>0</v>
-      </c>
-      <c r="E207" t="s">
-        <v>142</v>
-      </c>
-      <c r="G207">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A208" t="s">
-        <v>905</v>
-      </c>
-      <c r="B208" t="s">
-        <v>905</v>
-      </c>
-      <c r="D208" s="1">
-        <v>0</v>
-      </c>
-      <c r="E208" t="s">
-        <v>32</v>
-      </c>
-      <c r="G208">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A209" t="s">
-        <v>906</v>
-      </c>
-      <c r="B209" t="s">
-        <v>906</v>
-      </c>
-      <c r="D209" s="1">
-        <v>0</v>
-      </c>
-      <c r="E209" t="s">
-        <v>100</v>
-      </c>
-      <c r="G209">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A210" t="s">
-        <v>907</v>
-      </c>
-      <c r="B210" t="s">
-        <v>907</v>
-      </c>
-      <c r="D210" s="1">
-        <v>0</v>
-      </c>
-      <c r="E210" t="s">
-        <v>73</v>
-      </c>
-      <c r="G210">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A211" t="s">
-        <v>908</v>
-      </c>
-      <c r="B211" t="s">
-        <v>908</v>
-      </c>
-      <c r="D211" s="1">
-        <v>0</v>
-      </c>
-      <c r="E211" t="s">
-        <v>173</v>
-      </c>
-      <c r="G211">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A212" t="s">
-        <v>909</v>
-      </c>
-      <c r="B212" t="s">
-        <v>909</v>
-      </c>
-      <c r="D212" s="1">
-        <v>1</v>
-      </c>
-      <c r="E212" t="s">
-        <v>182</v>
-      </c>
-      <c r="G212">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A213" t="s">
-        <v>910</v>
-      </c>
-      <c r="B213" t="s">
-        <v>910</v>
-      </c>
-      <c r="D213" s="1">
-        <v>0</v>
-      </c>
-      <c r="E213" t="s">
-        <v>74</v>
-      </c>
-      <c r="G213">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A214" t="s">
-        <v>911</v>
-      </c>
-      <c r="B214" t="s">
-        <v>911</v>
-      </c>
-      <c r="D214" s="1">
-        <v>0</v>
-      </c>
-      <c r="E214" t="s">
-        <v>52</v>
-      </c>
-      <c r="G214">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A215" t="s">
-        <v>912</v>
-      </c>
-      <c r="B215" t="s">
-        <v>912</v>
-      </c>
-      <c r="D215" s="1">
-        <v>0</v>
-      </c>
-      <c r="E215" t="s">
-        <v>52</v>
-      </c>
-      <c r="G215">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
-        <v>913</v>
-      </c>
-      <c r="B216" t="s">
-        <v>913</v>
-      </c>
-      <c r="D216" s="1">
-        <v>0</v>
-      </c>
-      <c r="E216" t="s">
-        <v>133</v>
-      </c>
-      <c r="G216">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A217" t="s">
-        <v>914</v>
-      </c>
-      <c r="B217" t="s">
-        <v>914</v>
-      </c>
-      <c r="D217" s="1">
-        <v>0</v>
-      </c>
-      <c r="E217" t="s">
-        <v>101</v>
-      </c>
-      <c r="G217">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A218" t="s">
-        <v>915</v>
-      </c>
-      <c r="B218" t="s">
-        <v>915</v>
-      </c>
-      <c r="D218" s="1">
-        <v>0</v>
-      </c>
-      <c r="E218" t="s">
-        <v>195</v>
-      </c>
-      <c r="G218">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A219" t="s">
-        <v>916</v>
-      </c>
-      <c r="B219" t="s">
-        <v>916</v>
-      </c>
-      <c r="D219" s="1">
-        <v>0</v>
-      </c>
-      <c r="E219" t="s">
-        <v>37</v>
-      </c>
-      <c r="G219">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A220" t="s">
-        <v>917</v>
-      </c>
-      <c r="B220" t="s">
-        <v>917</v>
-      </c>
-      <c r="D220" s="1">
-        <v>0</v>
-      </c>
-      <c r="E220" t="s">
-        <v>139</v>
-      </c>
-      <c r="G220">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A221" t="s">
-        <v>918</v>
-      </c>
-      <c r="B221" t="s">
-        <v>918</v>
-      </c>
-      <c r="D221" s="1">
-        <v>0</v>
-      </c>
-      <c r="E221" t="s">
-        <v>142</v>
-      </c>
-      <c r="G221">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A222" t="s">
-        <v>919</v>
-      </c>
-      <c r="B222" t="s">
-        <v>919</v>
-      </c>
-      <c r="D222" s="1">
-        <v>0</v>
-      </c>
-      <c r="E222" t="s">
-        <v>184</v>
-      </c>
-      <c r="G222">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A223" t="s">
-        <v>920</v>
-      </c>
-      <c r="B223" t="s">
-        <v>920</v>
-      </c>
-      <c r="D223" s="1">
-        <v>0</v>
-      </c>
-      <c r="E223" t="s">
-        <v>61</v>
-      </c>
-      <c r="G223">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A224" t="s">
-        <v>921</v>
-      </c>
-      <c r="B224" t="s">
-        <v>921</v>
-      </c>
-      <c r="D224" s="1">
-        <v>0</v>
-      </c>
-      <c r="E224" t="s">
-        <v>68</v>
-      </c>
-      <c r="G224">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A225" t="s">
-        <v>922</v>
-      </c>
-      <c r="B225" t="s">
-        <v>922</v>
-      </c>
-      <c r="D225" s="1">
-        <v>0</v>
-      </c>
-      <c r="E225" t="s">
-        <v>76</v>
-      </c>
-      <c r="G225">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
-        <v>923</v>
-      </c>
-      <c r="B226" t="s">
-        <v>923</v>
-      </c>
-      <c r="D226" s="1">
-        <v>1</v>
-      </c>
-      <c r="E226" t="s">
-        <v>93</v>
-      </c>
-      <c r="G226">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A227" t="s">
-        <v>924</v>
-      </c>
-      <c r="B227" t="s">
-        <v>924</v>
-      </c>
-      <c r="D227" s="1">
-        <v>0</v>
-      </c>
-      <c r="E227" t="s">
-        <v>61</v>
-      </c>
-      <c r="G227">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A228" t="s">
-        <v>925</v>
-      </c>
-      <c r="B228" t="s">
-        <v>925</v>
-      </c>
-      <c r="D228" s="1">
-        <v>0</v>
-      </c>
-      <c r="E228" t="s">
-        <v>139</v>
-      </c>
-      <c r="G228">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
-        <v>926</v>
-      </c>
-      <c r="B229" t="s">
-        <v>926</v>
-      </c>
-      <c r="D229" s="1">
-        <v>0</v>
-      </c>
-      <c r="E229" t="s">
-        <v>45</v>
-      </c>
-      <c r="G229">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A230" t="s">
-        <v>927</v>
-      </c>
-      <c r="B230" t="s">
-        <v>927</v>
-      </c>
-      <c r="D230" s="1">
-        <v>0</v>
-      </c>
-      <c r="E230" t="s">
-        <v>85</v>
-      </c>
-      <c r="G230">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A231" t="s">
-        <v>928</v>
-      </c>
-      <c r="B231" t="s">
-        <v>928</v>
-      </c>
-      <c r="D231" s="1">
-        <v>0</v>
-      </c>
-      <c r="E231" t="s">
-        <v>90</v>
-      </c>
-      <c r="G231">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
-        <v>929</v>
-      </c>
-      <c r="B232" t="s">
-        <v>929</v>
-      </c>
-      <c r="D232" s="1">
-        <v>0</v>
-      </c>
-      <c r="E232" t="s">
-        <v>122</v>
-      </c>
-      <c r="G232">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A233" t="s">
-        <v>930</v>
-      </c>
-      <c r="B233" t="s">
-        <v>930</v>
-      </c>
-      <c r="D233" s="1">
-        <v>0</v>
-      </c>
-      <c r="E233" t="s">
-        <v>52</v>
-      </c>
-      <c r="G233">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
-        <v>931</v>
-      </c>
-      <c r="B234" t="s">
-        <v>931</v>
-      </c>
-      <c r="D234" s="1">
-        <v>0</v>
-      </c>
-      <c r="E234" t="s">
-        <v>52</v>
-      </c>
-      <c r="G234">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A235" t="s">
-        <v>932</v>
-      </c>
-      <c r="B235" t="s">
-        <v>932</v>
-      </c>
-      <c r="D235" s="1">
-        <v>0</v>
-      </c>
-      <c r="E235" t="s">
-        <v>100</v>
-      </c>
-      <c r="G235">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A236" t="s">
-        <v>933</v>
-      </c>
-      <c r="B236" t="s">
-        <v>933</v>
-      </c>
-      <c r="D236" s="1">
-        <v>0</v>
-      </c>
-      <c r="E236" t="s">
-        <v>115</v>
-      </c>
-      <c r="G236">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A237" t="s">
-        <v>934</v>
-      </c>
-      <c r="B237" t="s">
-        <v>934</v>
-      </c>
-      <c r="D237" s="1">
-        <v>0</v>
-      </c>
-      <c r="E237" t="s">
-        <v>13</v>
-      </c>
-      <c r="G237">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A238" t="s">
-        <v>935</v>
-      </c>
-      <c r="B238" t="s">
-        <v>935</v>
-      </c>
-      <c r="D238" s="1">
-        <v>0</v>
-      </c>
-      <c r="E238" t="s">
-        <v>45</v>
-      </c>
-      <c r="G238">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A239" t="s">
-        <v>936</v>
-      </c>
-      <c r="B239" t="s">
-        <v>936</v>
-      </c>
-      <c r="D239" s="1">
-        <v>1</v>
-      </c>
-      <c r="E239" t="s">
-        <v>157</v>
-      </c>
-      <c r="G239">
         <v>46</v>
       </c>
     </row>
@@ -9244,10 +8484,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>975</v>
+        <v>937</v>
       </c>
       <c r="B11" t="s">
-        <v>975</v>
+        <v>937</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -9280,10 +8520,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>976</v>
+        <v>938</v>
       </c>
       <c r="B14" t="s">
-        <v>976</v>
+        <v>938</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -9688,7 +8928,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>977</v>
+        <v>939</v>
       </c>
       <c r="B50" t="s">
         <v>631</v>
@@ -9732,7 +8972,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>978</v>
+        <v>940</v>
       </c>
       <c r="B54" t="s">
         <v>635</v>
@@ -9743,10 +8983,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>979</v>
+        <v>941</v>
       </c>
       <c r="B55" t="s">
-        <v>979</v>
+        <v>941</v>
       </c>
       <c r="E55" t="s">
         <v>133</v>
@@ -9754,7 +8994,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>980</v>
+        <v>942</v>
       </c>
       <c r="B56" t="s">
         <v>636</v>
@@ -9765,10 +9005,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>981</v>
+        <v>943</v>
       </c>
       <c r="B57" t="s">
-        <v>981</v>
+        <v>943</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -9798,7 +9038,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>982</v>
+        <v>944</v>
       </c>
       <c r="B60" t="s">
         <v>639</v>
@@ -9823,10 +9063,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>983</v>
+        <v>945</v>
       </c>
       <c r="B62" t="s">
-        <v>983</v>
+        <v>945</v>
       </c>
       <c r="E62" t="s">
         <v>64</v>
@@ -9914,7 +9154,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>984</v>
+        <v>946</v>
       </c>
       <c r="B70" t="s">
         <v>648</v>
@@ -10019,7 +9259,7 @@
         <v>657</v>
       </c>
       <c r="B79" t="s">
-        <v>985</v>
+        <v>947</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -10030,10 +9270,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>986</v>
+        <v>948</v>
       </c>
       <c r="B80" t="s">
-        <v>986</v>
+        <v>948</v>
       </c>
       <c r="E80" t="s">
         <v>149</v>
@@ -10052,10 +9292,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>987</v>
+        <v>949</v>
       </c>
       <c r="B82" t="s">
-        <v>987</v>
+        <v>949</v>
       </c>
       <c r="E82" t="s">
         <v>92</v>
@@ -10096,10 +9336,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>988</v>
+        <v>950</v>
       </c>
       <c r="B86" t="s">
-        <v>988</v>
+        <v>950</v>
       </c>
       <c r="E86" t="s">
         <v>149</v>
@@ -10190,7 +9430,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>989</v>
+        <v>951</v>
       </c>
       <c r="B94" t="s">
         <v>670</v>
@@ -10201,7 +9441,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>990</v>
+        <v>952</v>
       </c>
       <c r="B95" t="s">
         <v>671</v>
@@ -10234,7 +9474,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>991</v>
+        <v>953</v>
       </c>
       <c r="B98" t="s">
         <v>674</v>
@@ -10267,10 +9507,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>992</v>
+        <v>954</v>
       </c>
       <c r="B101" t="s">
-        <v>993</v>
+        <v>955</v>
       </c>
       <c r="E101" t="s">
         <v>173</v>
@@ -10300,7 +9540,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>994</v>
+        <v>956</v>
       </c>
       <c r="B104" t="s">
         <v>679</v>
@@ -10322,10 +9562,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>995</v>
+        <v>957</v>
       </c>
       <c r="B106" t="s">
-        <v>995</v>
+        <v>957</v>
       </c>
       <c r="E106" t="s">
         <v>41</v>
@@ -10377,10 +9617,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>996</v>
+        <v>958</v>
       </c>
       <c r="B111" t="s">
-        <v>996</v>
+        <v>958</v>
       </c>
       <c r="E111" t="s">
         <v>184</v>
@@ -10460,7 +9700,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>997</v>
+        <v>959</v>
       </c>
       <c r="B118" t="s">
         <v>692</v>
@@ -10700,7 +9940,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>998</v>
+        <v>960</v>
       </c>
       <c r="B139" t="s">
         <v>713</v>
@@ -10835,7 +10075,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>999</v>
+        <v>961</v>
       </c>
       <c r="B151" t="s">
         <v>726</v>
@@ -10959,7 +10199,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>1000</v>
+        <v>962</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
@@ -10970,10 +10210,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>1001</v>
+        <v>963</v>
       </c>
       <c r="B163" t="s">
-        <v>1001</v>
+        <v>963</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -10995,10 +10235,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>1002</v>
+        <v>964</v>
       </c>
       <c r="B165" t="s">
-        <v>1002</v>
+        <v>964</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -11072,10 +10312,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>1003</v>
+        <v>965</v>
       </c>
       <c r="B172" t="s">
-        <v>1003</v>
+        <v>965</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -11174,10 +10414,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>1004</v>
+        <v>966</v>
       </c>
       <c r="B181" t="s">
-        <v>1004</v>
+        <v>966</v>
       </c>
       <c r="E181" t="s">
         <v>13</v>
@@ -11395,10 +10635,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>1005</v>
+        <v>967</v>
       </c>
       <c r="B200" t="s">
-        <v>1005</v>
+        <v>967</v>
       </c>
       <c r="E200" t="s">
         <v>59</v>
@@ -11417,10 +10657,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>1006</v>
+        <v>968</v>
       </c>
       <c r="B202" t="s">
-        <v>1006</v>
+        <v>968</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -11519,10 +10759,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>1007</v>
+        <v>969</v>
       </c>
       <c r="B211" t="s">
-        <v>1007</v>
+        <v>969</v>
       </c>
       <c r="E211" t="s">
         <v>74</v>
@@ -11530,7 +10770,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>1008</v>
+        <v>970</v>
       </c>
       <c r="B212" t="s">
         <v>75</v>
@@ -11585,7 +10825,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>1009</v>
+        <v>971</v>
       </c>
       <c r="B217" t="s">
         <v>82</v>
@@ -11618,7 +10858,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>1010</v>
+        <v>972</v>
       </c>
       <c r="B220" t="s">
         <v>86</v>
@@ -11629,10 +10869,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>1011</v>
+        <v>973</v>
       </c>
       <c r="B221" t="s">
-        <v>1011</v>
+        <v>973</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -11643,7 +10883,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>1012</v>
+        <v>974</v>
       </c>
       <c r="B222" t="s">
         <v>87</v>
@@ -11676,7 +10916,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>1013</v>
+        <v>975</v>
       </c>
       <c r="B225" t="s">
         <v>91</v>
@@ -11687,10 +10927,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>1014</v>
+        <v>976</v>
       </c>
       <c r="B226" t="s">
-        <v>1014</v>
+        <v>976</v>
       </c>
       <c r="E226" t="s">
         <v>93</v>
@@ -11698,7 +10938,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>1015</v>
+        <v>977</v>
       </c>
       <c r="B227" t="s">
         <v>94</v>
@@ -11731,7 +10971,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>1016</v>
+        <v>978</v>
       </c>
       <c r="B230" t="s">
         <v>83</v>
@@ -11753,7 +10993,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>1017</v>
+        <v>979</v>
       </c>
       <c r="B232" t="s">
         <v>99</v>
@@ -11764,10 +11004,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>1018</v>
+        <v>980</v>
       </c>
       <c r="B233" t="s">
-        <v>1018</v>
+        <v>980</v>
       </c>
       <c r="E233" t="s">
         <v>101</v>
@@ -11775,7 +11015,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>1019</v>
+        <v>981</v>
       </c>
       <c r="B234" t="s">
         <v>102</v>
@@ -11786,10 +11026,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>1020</v>
+        <v>982</v>
       </c>
       <c r="B235" t="s">
-        <v>1020</v>
+        <v>982</v>
       </c>
       <c r="E235" t="s">
         <v>90</v>
@@ -11797,10 +11037,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>1021</v>
+        <v>983</v>
       </c>
       <c r="B236" t="s">
-        <v>1022</v>
+        <v>984</v>
       </c>
       <c r="E236" t="s">
         <v>11</v>
@@ -11808,7 +11048,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>1023</v>
+        <v>985</v>
       </c>
       <c r="B237" t="s">
         <v>103</v>
@@ -11844,7 +11084,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>1024</v>
+        <v>986</v>
       </c>
       <c r="B240" t="s">
         <v>106</v>
@@ -11888,7 +11128,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>1025</v>
+        <v>987</v>
       </c>
       <c r="B244" t="s">
         <v>111</v>
@@ -11910,10 +11150,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>1026</v>
+        <v>988</v>
       </c>
       <c r="B246" t="s">
-        <v>1026</v>
+        <v>988</v>
       </c>
       <c r="E246" t="s">
         <v>9</v>
@@ -11921,7 +11161,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>1027</v>
+        <v>989</v>
       </c>
       <c r="B247" t="s">
         <v>114</v>
@@ -11943,10 +11183,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>1028</v>
+        <v>990</v>
       </c>
       <c r="B249" t="s">
-        <v>1028</v>
+        <v>990</v>
       </c>
       <c r="E249" t="s">
         <v>59</v>
@@ -11965,7 +11205,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>1029</v>
+        <v>991</v>
       </c>
       <c r="B251" t="s">
         <v>118</v>
@@ -12001,7 +11241,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>1030</v>
+        <v>992</v>
       </c>
       <c r="B254" t="s">
         <v>123</v>
@@ -12045,10 +11285,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>1031</v>
+        <v>993</v>
       </c>
       <c r="B258" t="s">
-        <v>1031</v>
+        <v>993</v>
       </c>
       <c r="E258" t="s">
         <v>81</v>
@@ -12067,7 +11307,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>1032</v>
+        <v>994</v>
       </c>
       <c r="B260" t="s">
         <v>128</v>
@@ -12078,10 +11318,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>1033</v>
+        <v>995</v>
       </c>
       <c r="B261" t="s">
-        <v>1033</v>
+        <v>995</v>
       </c>
       <c r="E261" t="s">
         <v>129</v>
@@ -12089,7 +11329,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>1034</v>
+        <v>996</v>
       </c>
       <c r="B262" t="s">
         <v>130</v>
@@ -12125,10 +11365,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>1035</v>
+        <v>997</v>
       </c>
       <c r="B265" t="s">
-        <v>1035</v>
+        <v>997</v>
       </c>
       <c r="E265" t="s">
         <v>133</v>
@@ -12161,7 +11401,7 @@
         <v>136</v>
       </c>
       <c r="B268" t="s">
-        <v>1036</v>
+        <v>998</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -12194,10 +11434,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>1037</v>
+        <v>999</v>
       </c>
       <c r="B271" t="s">
-        <v>1037</v>
+        <v>999</v>
       </c>
       <c r="E271" t="s">
         <v>81</v>
@@ -12233,10 +11473,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>1038</v>
+        <v>1000</v>
       </c>
       <c r="B274" t="s">
-        <v>1039</v>
+        <v>1001</v>
       </c>
       <c r="E274" t="s">
         <v>49</v>
@@ -12255,10 +11495,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>1040</v>
+        <v>1002</v>
       </c>
       <c r="B276" t="s">
-        <v>1040</v>
+        <v>1002</v>
       </c>
       <c r="E276" t="s">
         <v>101</v>
@@ -12288,10 +11528,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>1041</v>
+        <v>1003</v>
       </c>
       <c r="B279" t="s">
-        <v>1041</v>
+        <v>1003</v>
       </c>
       <c r="E279" t="s">
         <v>47</v>
@@ -12321,10 +11561,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="B282" t="s">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="E282" t="s">
         <v>47</v>
@@ -12379,10 +11619,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>1043</v>
+        <v>1005</v>
       </c>
       <c r="B287" t="s">
-        <v>1043</v>
+        <v>1005</v>
       </c>
       <c r="E287" t="s">
         <v>122</v>
@@ -12401,10 +11641,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>1044</v>
+        <v>1006</v>
       </c>
       <c r="B289" t="s">
-        <v>1044</v>
+        <v>1006</v>
       </c>
       <c r="E289" t="s">
         <v>120</v>
@@ -12412,10 +11652,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>1045</v>
+        <v>1007</v>
       </c>
       <c r="B290" t="s">
-        <v>1045</v>
+        <v>1007</v>
       </c>
       <c r="E290" t="s">
         <v>62</v>
@@ -12434,10 +11674,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>1046</v>
+        <v>1008</v>
       </c>
       <c r="B292" t="s">
-        <v>1046</v>
+        <v>1008</v>
       </c>
       <c r="E292" t="s">
         <v>139</v>
@@ -12445,7 +11685,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>1047</v>
+        <v>1009</v>
       </c>
       <c r="B293" t="s">
         <v>155</v>
@@ -12470,10 +11710,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>1048</v>
+        <v>1010</v>
       </c>
       <c r="B295" t="s">
-        <v>1048</v>
+        <v>1010</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -12484,10 +11724,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>1049</v>
+        <v>1011</v>
       </c>
       <c r="B296" t="s">
-        <v>1049</v>
+        <v>1011</v>
       </c>
       <c r="E296" t="s">
         <v>115</v>
@@ -12561,10 +11801,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>1050</v>
+        <v>1012</v>
       </c>
       <c r="B303" t="s">
-        <v>1051</v>
+        <v>1013</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -12586,7 +11826,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>1052</v>
+        <v>1014</v>
       </c>
       <c r="B305" t="s">
         <v>165</v>
@@ -12600,10 +11840,10 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>1053</v>
+        <v>1015</v>
       </c>
       <c r="B306" t="s">
-        <v>1054</v>
+        <v>1016</v>
       </c>
       <c r="E306" t="s">
         <v>52</v>
@@ -12611,10 +11851,10 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>1055</v>
+        <v>1017</v>
       </c>
       <c r="B307" t="s">
-        <v>1055</v>
+        <v>1017</v>
       </c>
       <c r="E307" t="s">
         <v>142</v>
@@ -12644,10 +11884,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>1056</v>
+        <v>1018</v>
       </c>
       <c r="B310" t="s">
-        <v>1056</v>
+        <v>1018</v>
       </c>
       <c r="E310" t="s">
         <v>149</v>
@@ -12655,7 +11895,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>1057</v>
+        <v>1019</v>
       </c>
       <c r="B311" t="s">
         <v>168</v>
@@ -12732,7 +11972,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>1058</v>
+        <v>1020</v>
       </c>
       <c r="B318" t="s">
         <v>177</v>
@@ -12743,7 +11983,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>1059</v>
+        <v>1021</v>
       </c>
       <c r="B319" t="s">
         <v>178</v>
@@ -12754,10 +11994,10 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>1060</v>
+        <v>1022</v>
       </c>
       <c r="B320" t="s">
-        <v>1061</v>
+        <v>1023</v>
       </c>
       <c r="E320" t="s">
         <v>64</v>
@@ -12925,10 +12165,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>1062</v>
+        <v>1024</v>
       </c>
       <c r="B335" t="s">
-        <v>1062</v>
+        <v>1024</v>
       </c>
       <c r="E335" t="s">
         <v>139</v>
@@ -12936,7 +12176,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>1063</v>
+        <v>1025</v>
       </c>
       <c r="B336" t="s">
         <v>196</v>
@@ -12947,10 +12187,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>1064</v>
+        <v>1026</v>
       </c>
       <c r="B337" t="s">
-        <v>1064</v>
+        <v>1026</v>
       </c>
       <c r="E337" t="s">
         <v>184</v>
@@ -12958,7 +12198,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>1065</v>
+        <v>1027</v>
       </c>
       <c r="B338" t="s">
         <v>197</v>
@@ -12969,7 +12209,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>1066</v>
+        <v>1028</v>
       </c>
       <c r="B339" t="s">
         <v>198</v>
@@ -12980,10 +12220,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>1067</v>
+        <v>1029</v>
       </c>
       <c r="B340" t="s">
-        <v>1067</v>
+        <v>1029</v>
       </c>
       <c r="E340" t="s">
         <v>45</v>
@@ -13016,10 +12256,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>1068</v>
+        <v>1030</v>
       </c>
       <c r="B343" t="s">
-        <v>1069</v>
+        <v>1031</v>
       </c>
       <c r="E343" t="s">
         <v>41</v>
@@ -13063,10 +12303,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>1070</v>
+        <v>1032</v>
       </c>
       <c r="B347" t="s">
-        <v>1070</v>
+        <v>1032</v>
       </c>
       <c r="E347" t="s">
         <v>59</v>
@@ -13096,7 +12336,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>1071</v>
+        <v>1033</v>
       </c>
       <c r="B350" t="s">
         <v>208</v>
@@ -13107,7 +12347,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>1072</v>
+        <v>1034</v>
       </c>
       <c r="B351" t="s">
         <v>209</v>
@@ -13129,10 +12369,10 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>1073</v>
+        <v>1035</v>
       </c>
       <c r="B353" t="s">
-        <v>1073</v>
+        <v>1035</v>
       </c>
       <c r="E353" t="s">
         <v>56</v>
@@ -13256,10 +12496,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>1074</v>
+        <v>1036</v>
       </c>
       <c r="B364" t="s">
-        <v>1074</v>
+        <v>1036</v>
       </c>
       <c r="E364" t="s">
         <v>120</v>
@@ -13413,10 +12653,10 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>1075</v>
+        <v>1037</v>
       </c>
       <c r="B378" t="s">
-        <v>1075</v>
+        <v>1037</v>
       </c>
       <c r="E378" t="s">
         <v>49</v>
@@ -13435,10 +12675,10 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>1076</v>
+        <v>1038</v>
       </c>
       <c r="B380" t="s">
-        <v>1076</v>
+        <v>1038</v>
       </c>
       <c r="E380" t="s">
         <v>7</v>
@@ -13507,10 +12747,10 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>1077</v>
+        <v>1039</v>
       </c>
       <c r="B386" t="s">
-        <v>1078</v>
+        <v>1040</v>
       </c>
       <c r="E386" t="s">
         <v>120</v>
@@ -13529,10 +12769,10 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>1079</v>
+        <v>1041</v>
       </c>
       <c r="B388" t="s">
-        <v>1079</v>
+        <v>1041</v>
       </c>
       <c r="E388" t="s">
         <v>7</v>
@@ -13540,10 +12780,10 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>1080</v>
+        <v>1042</v>
       </c>
       <c r="B389" t="s">
-        <v>1080</v>
+        <v>1042</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -13554,10 +12794,10 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>1081</v>
+        <v>1043</v>
       </c>
       <c r="B390" t="s">
-        <v>1081</v>
+        <v>1043</v>
       </c>
       <c r="E390" t="s">
         <v>92</v>
@@ -13590,10 +12830,10 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>1082</v>
+        <v>1044</v>
       </c>
       <c r="B393" t="s">
-        <v>1082</v>
+        <v>1044</v>
       </c>
       <c r="E393" t="s">
         <v>76</v>
@@ -13601,10 +12841,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>1083</v>
+        <v>1045</v>
       </c>
       <c r="B394" t="s">
-        <v>1083</v>
+        <v>1045</v>
       </c>
       <c r="E394" t="s">
         <v>115</v>
@@ -13640,7 +12880,7 @@
         <v>249</v>
       </c>
       <c r="B397" t="s">
-        <v>1084</v>
+        <v>1046</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -13651,10 +12891,10 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>1085</v>
+        <v>1047</v>
       </c>
       <c r="B398" t="s">
-        <v>1085</v>
+        <v>1047</v>
       </c>
       <c r="E398" t="s">
         <v>139</v>
@@ -13662,7 +12902,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>1086</v>
+        <v>1048</v>
       </c>
       <c r="B399" t="s">
         <v>250</v>
@@ -13673,10 +12913,10 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>1087</v>
+        <v>1049</v>
       </c>
       <c r="B400" t="s">
-        <v>1087</v>
+        <v>1049</v>
       </c>
       <c r="E400" t="s">
         <v>122</v>
@@ -13684,10 +12924,10 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>1088</v>
+        <v>1050</v>
       </c>
       <c r="B401" t="s">
-        <v>1088</v>
+        <v>1050</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -13720,10 +12960,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>1089</v>
+        <v>1051</v>
       </c>
       <c r="B404" t="s">
-        <v>1089</v>
+        <v>1051</v>
       </c>
       <c r="E404" t="s">
         <v>142</v>
@@ -13753,10 +12993,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>1090</v>
+        <v>1052</v>
       </c>
       <c r="B407" t="s">
-        <v>1090</v>
+        <v>1052</v>
       </c>
       <c r="E407" t="s">
         <v>30</v>
@@ -13811,10 +13051,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>1091</v>
+        <v>1053</v>
       </c>
       <c r="B412" t="s">
-        <v>1091</v>
+        <v>1053</v>
       </c>
       <c r="E412" t="s">
         <v>195</v>
@@ -13833,10 +13073,10 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>1092</v>
+        <v>1054</v>
       </c>
       <c r="B414" t="s">
-        <v>1092</v>
+        <v>1054</v>
       </c>
       <c r="E414" t="s">
         <v>9</v>
@@ -13844,10 +13084,10 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>1093</v>
+        <v>1055</v>
       </c>
       <c r="B415" t="s">
-        <v>1093</v>
+        <v>1055</v>
       </c>
       <c r="E415" t="s">
         <v>76</v>
@@ -13866,10 +13106,10 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>1094</v>
+        <v>1056</v>
       </c>
       <c r="B417" t="s">
-        <v>1095</v>
+        <v>1057</v>
       </c>
       <c r="E417" t="s">
         <v>49</v>
@@ -13910,10 +13150,10 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>1096</v>
+        <v>1058</v>
       </c>
       <c r="B421" t="s">
-        <v>1096</v>
+        <v>1058</v>
       </c>
       <c r="E421" t="s">
         <v>100</v>
@@ -13921,10 +13161,10 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>1097</v>
+        <v>1059</v>
       </c>
       <c r="B422" t="s">
-        <v>1097</v>
+        <v>1059</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -13957,10 +13197,10 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
-        <v>1098</v>
+        <v>1060</v>
       </c>
       <c r="B425" t="s">
-        <v>1098</v>
+        <v>1060</v>
       </c>
       <c r="E425" t="s">
         <v>59</v>
@@ -13968,10 +13208,10 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>1099</v>
+        <v>1061</v>
       </c>
       <c r="B426" t="s">
-        <v>1099</v>
+        <v>1061</v>
       </c>
       <c r="E426" t="s">
         <v>74</v>
@@ -14001,10 +13241,10 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
-        <v>1100</v>
+        <v>1062</v>
       </c>
       <c r="B429" t="s">
-        <v>1100</v>
+        <v>1062</v>
       </c>
       <c r="E429" t="s">
         <v>49</v>
@@ -14023,10 +13263,10 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>1101</v>
+        <v>1063</v>
       </c>
       <c r="B431" t="s">
-        <v>1102</v>
+        <v>1064</v>
       </c>
       <c r="E431" t="s">
         <v>101</v>
@@ -14125,10 +13365,10 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>1103</v>
+        <v>1065</v>
       </c>
       <c r="B440" t="s">
-        <v>1103</v>
+        <v>1065</v>
       </c>
       <c r="E440" t="s">
         <v>195</v>
@@ -14180,10 +13420,10 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>1104</v>
+        <v>1066</v>
       </c>
       <c r="B445" t="s">
-        <v>1104</v>
+        <v>1066</v>
       </c>
       <c r="E445" t="s">
         <v>30</v>
@@ -14202,10 +13442,10 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>1105</v>
+        <v>1067</v>
       </c>
       <c r="B447" t="s">
-        <v>1105</v>
+        <v>1067</v>
       </c>
       <c r="E447" t="s">
         <v>74</v>
@@ -14293,7 +13533,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>1106</v>
+        <v>1068</v>
       </c>
       <c r="B455" t="s">
         <v>291</v>
@@ -14552,7 +13792,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>1107</v>
+        <v>1069</v>
       </c>
       <c r="B478" t="s">
         <v>314</v>
@@ -14833,7 +14073,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>1108</v>
+        <v>1070</v>
       </c>
       <c r="B503" t="s">
         <v>340</v>
@@ -14924,7 +14164,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
-        <v>1109</v>
+        <v>1071</v>
       </c>
       <c r="B511" t="s">
         <v>348</v>
@@ -14935,7 +14175,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>1110</v>
+        <v>1072</v>
       </c>
       <c r="B512" t="s">
         <v>349</v>
@@ -14971,10 +14211,10 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>1111</v>
+        <v>1073</v>
       </c>
       <c r="B515" t="s">
-        <v>1111</v>
+        <v>1073</v>
       </c>
       <c r="E515" t="s">
         <v>93</v>
@@ -15026,7 +14266,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
-        <v>1112</v>
+        <v>1074</v>
       </c>
       <c r="B520" t="s">
         <v>356</v>
@@ -15059,7 +14299,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
-        <v>1113</v>
+        <v>1075</v>
       </c>
       <c r="B523" t="s">
         <v>359</v>
@@ -15430,7 +14670,7 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
-        <v>1114</v>
+        <v>1076</v>
       </c>
       <c r="B554" t="s">
         <v>393</v>
@@ -15532,7 +14772,7 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
-        <v>1115</v>
+        <v>1077</v>
       </c>
       <c r="B563" t="s">
         <v>403</v>
@@ -15590,7 +14830,7 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
-        <v>1116</v>
+        <v>1078</v>
       </c>
       <c r="B568" t="s">
         <v>408</v>
@@ -15918,7 +15158,7 @@
         <v>437</v>
       </c>
       <c r="B597" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="E597" t="s">
         <v>101</v>
@@ -16031,10 +15271,10 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
-        <v>1118</v>
+        <v>1080</v>
       </c>
       <c r="B607" t="s">
-        <v>1118</v>
+        <v>1080</v>
       </c>
       <c r="E607" t="s">
         <v>11</v>
@@ -16195,10 +15435,10 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
-        <v>1119</v>
+        <v>1081</v>
       </c>
       <c r="B620" t="s">
-        <v>1119</v>
+        <v>1081</v>
       </c>
       <c r="E620" t="s">
         <v>49</v>
@@ -16250,10 +15490,10 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
-        <v>1120</v>
+        <v>1082</v>
       </c>
       <c r="B625" t="s">
-        <v>1120</v>
+        <v>1082</v>
       </c>
       <c r="E625" t="s">
         <v>142</v>
@@ -16261,10 +15501,10 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
-        <v>1121</v>
+        <v>1083</v>
       </c>
       <c r="B626" t="s">
-        <v>1121</v>
+        <v>1083</v>
       </c>
       <c r="E626" t="s">
         <v>64</v>
@@ -16465,10 +15705,10 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
-        <v>1122</v>
+        <v>1084</v>
       </c>
       <c r="B644" t="s">
-        <v>1122</v>
+        <v>1084</v>
       </c>
       <c r="E644" t="s">
         <v>142</v>
@@ -16600,10 +15840,10 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
-        <v>1123</v>
+        <v>1085</v>
       </c>
       <c r="B656" t="s">
-        <v>1123</v>
+        <v>1085</v>
       </c>
       <c r="E656" t="s">
         <v>13</v>
@@ -16735,10 +15975,10 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
-        <v>1124</v>
+        <v>1086</v>
       </c>
       <c r="B668" t="s">
-        <v>1124</v>
+        <v>1086</v>
       </c>
       <c r="E668" t="s">
         <v>133</v>
@@ -16757,7 +15997,7 @@
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
-        <v>1125</v>
+        <v>1087</v>
       </c>
       <c r="B670" t="s">
         <v>505</v>
@@ -16818,10 +16058,10 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
-        <v>1126</v>
+        <v>1088</v>
       </c>
       <c r="B675" t="s">
-        <v>1126</v>
+        <v>1088</v>
       </c>
       <c r="E675" t="s">
         <v>68</v>
@@ -17215,10 +16455,10 @@
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
-        <v>1127</v>
+        <v>1089</v>
       </c>
       <c r="B710" t="s">
-        <v>1127</v>
+        <v>1089</v>
       </c>
       <c r="E710" t="s">
         <v>62</v>
@@ -17248,10 +16488,10 @@
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
-        <v>1128</v>
+        <v>1090</v>
       </c>
       <c r="B713" t="s">
-        <v>1128</v>
+        <v>1090</v>
       </c>
       <c r="C713">
         <v>1</v>
@@ -17273,10 +16513,10 @@
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
-        <v>1129</v>
+        <v>1091</v>
       </c>
       <c r="B715" t="s">
-        <v>1129</v>
+        <v>1091</v>
       </c>
       <c r="C715">
         <v>1</v>
@@ -17312,7 +16552,7 @@
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
-        <v>1130</v>
+        <v>1092</v>
       </c>
       <c r="B718" t="s">
         <v>552</v>
@@ -17356,10 +16596,10 @@
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
-        <v>1131</v>
+        <v>1093</v>
       </c>
       <c r="B722" t="s">
-        <v>1131</v>
+        <v>1093</v>
       </c>
       <c r="E722" t="s">
         <v>62</v>
@@ -17480,7 +16720,7 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
-        <v>1132</v>
+        <v>1094</v>
       </c>
       <c r="B733" t="s">
         <v>566</v>
@@ -17491,7 +16731,7 @@
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
-        <v>1133</v>
+        <v>1095</v>
       </c>
       <c r="B734" t="s">
         <v>567</v>
@@ -17502,10 +16742,10 @@
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
-        <v>1134</v>
+        <v>1096</v>
       </c>
       <c r="B735" t="s">
-        <v>1134</v>
+        <v>1096</v>
       </c>
       <c r="E735" t="s">
         <v>32</v>
@@ -17513,7 +16753,7 @@
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
-        <v>1135</v>
+        <v>1097</v>
       </c>
       <c r="B736" t="s">
         <v>568</v>
@@ -17582,10 +16822,10 @@
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
-        <v>1136</v>
+        <v>1098</v>
       </c>
       <c r="B742" t="s">
-        <v>1136</v>
+        <v>1098</v>
       </c>
       <c r="E742" t="s">
         <v>120</v>
@@ -17604,7 +16844,7 @@
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
-        <v>1137</v>
+        <v>1099</v>
       </c>
       <c r="B744" t="s">
         <v>575</v>
@@ -17618,7 +16858,7 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
-        <v>1138</v>
+        <v>1100</v>
       </c>
       <c r="B745" t="s">
         <v>576</v>
@@ -17720,1707 +16960,1707 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1139</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1141</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1142</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1143</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1144</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1145</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>1148</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>1149</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>1150</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>1151</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1152</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>1153</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1154</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1155</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1156</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1157</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>1158</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>1159</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>1160</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>1161</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>1162</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>1163</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>1164</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1165</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>1166</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>1167</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>1168</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>1169</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>1170</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>1171</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>1172</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>1173</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>1174</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>1175</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>1176</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>1177</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>1178</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>1179</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>1180</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>1181</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>1182</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>1183</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>1184</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>1185</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>1186</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>1187</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>1188</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>1189</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>1190</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>1191</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>1192</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>1193</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>1194</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>1195</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>1196</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>1197</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>1198</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>1199</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>1200</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>1201</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>1202</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>1203</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>1204</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>1205</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>1206</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>1207</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>1208</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>1209</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>1210</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>1211</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>1212</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>1213</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>1214</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>1215</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>1146</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>1216</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>1217</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>1218</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>1219</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>1147</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>1220</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>1221</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>1222</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>1223</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>1224</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>1225</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>1226</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>1227</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>1228</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>1229</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>1230</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>1231</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>1232</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>1233</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>1146</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>1147</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>1234</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>1235</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>1236</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>1237</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>1238</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>1239</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>1240</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>1241</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>1242</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>1243</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>1244</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>1245</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>1246</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>1247</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>1248</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>1249</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>1250</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>1251</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>1252</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>1253</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>1254</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>1255</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>1256</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>1257</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>1258</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>1259</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>1260</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>1261</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>1262</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>1263</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>1264</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>1265</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>1266</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>1267</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>1268</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>1269</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>1270</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>1271</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>1272</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>1273</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>1274</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>1275</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>1276</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>1277</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>1278</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>1279</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>1280</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>1281</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>1282</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>1283</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>1284</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>1285</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>1286</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>1287</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>1288</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>1289</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>1290</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>1291</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>1292</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>1293</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>1294</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>1295</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>1296</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>1297</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>1298</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>1299</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>1300</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>1301</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>1302</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>1303</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>1304</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>1305</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>1306</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>1307</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>1308</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>1309</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>1310</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>1311</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>1312</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>1313</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>1314</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>1315</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>1316</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>1317</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>1318</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>1319</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>1320</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>1213</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>1321</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>1322</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>1323</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>1324</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>1325</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>1326</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>1327</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>1146</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>1328</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>1329</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>1330</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>1331</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>1332</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>1333</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>1334</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>1335</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>1336</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>1337</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>1338</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>1339</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>1340</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>1341</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>1342</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>1343</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>1344</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>1345</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>1346</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>1347</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>1348</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>1349</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>1146</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>1350</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>1351</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>1352</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>1353</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>1354</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>1355</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>1146</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>1356</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>1357</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>1358</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>1359</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>1360</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>1213</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>1361</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>1362</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>1147</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>1363</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>1146</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>1364</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>1365</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>1147</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>1366</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>1147</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>1140</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>1147</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>1146</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>1367</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>1368</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>1146</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>1147</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>1147</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>1369</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>1370</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>1371</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>1146</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>1372</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>1372</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>1372</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>1373</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>1374</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>1375</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>1376</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>1377</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>1378</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>1379</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>1380</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>1381</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>1382</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>1383</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>1384</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>1385</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>1386</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>1387</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>1388</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>1389</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>1390</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>1391</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>1392</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>1393</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>1394</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>1395</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>1396</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>1397</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>1147</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>1398</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>1146</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>1399</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>1400</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>1401</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>1402</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>1403</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>1404</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>1405</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>1406</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>1407</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>1408</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>1409</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>1410</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>1411</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>1412</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>1413</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>1414</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>1415</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>1416</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>1417</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>1418</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>1419</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>1420</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>1421</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>1422</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>1423</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>1424</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>1425</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>1426</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>1427</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>1428</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>1429</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>1430</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>1431</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>1432</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>1433</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>1434</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>1435</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>1436</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>1437</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>1438</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>1439</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>1440</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>1441</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>1442</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>1443</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>1444</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>1445</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>1446</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>1447</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>1448</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>1449</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>1450</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>1451</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>1452</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>1453</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>1454</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>1455</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>1456</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>1457</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>1458</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
